--- a/Figures_Content.xlsx
+++ b/Figures_Content.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorcoppoleite/Box/FEDSM2020/Images for paper/Final_figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorcoppoleite/Box/FEDSM2020/documentation_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C6C8F-8895-5C4B-9278-D3ED7114110C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72A1D94-0A73-1A48-A6B0-6593800CB980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{90DCF3D3-D92B-904D-9DDA-1E385E675F3A}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>Streamwise velocity scalar field at a plane 0.01 from the wall.</t>
   </si>
   <si>
-    <t>streaks.png</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>to be done</t>
+  </si>
+  <si>
+    <t>streaks.eps</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -585,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -669,7 +669,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -708,10 +708,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
